--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -12,29 +12,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>zh</t>
-  </si>
-  <si>
-    <t>chioce[]</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>chioceEn[]</t>
-  </si>
-  <si>
-    <t>聖誕前夜，到處洋溢著歡樂的氣氛，但對TAKAMORI來説卻是例外
-Calli和Kiara之間充滿古怪與尷尬的氣氛，但她們之前並沒有吵過架
+    <t>zh_story</t>
+  </si>
+  <si>
+    <t>zh_chioce_1</t>
+  </si>
+  <si>
+    <t>zh_chioce_2</t>
+  </si>
+  <si>
+    <t>en_story</t>
+  </si>
+  <si>
+    <t>en_chioce_1</t>
+  </si>
+  <si>
+    <t>en_chioce_2</t>
+  </si>
+  <si>
+    <t>聖誕前夜，到處洋溢著歡樂的氣氛，但對TAKAMORI來説卻是例外&lt;block&gt;
+Calli和Kiara之間充滿古怪與尷尬的氣氛，但她們之前並沒有吵過架&lt;block&gt;
 Kiara最近總是很晚才回家，而且常常嘆氣，但當Calli試著跟她說話時
-她的反應卻總是一切都好
+她的反應卻總是一切都好&lt;block&gt;
 Calli告訴她自己他們之間不能再這樣了，
-她擔心是因為自己太傲嬌讓Kiara忍受不了，想要離開她
+她擔心是因為自己太傲嬌讓Kiara忍受不了，想要離開她&lt;block&gt;
 Calli: 我想讓她開心起來，但是我該怎麼做？</t>
   </si>
   <si>
@@ -233,7 +239,13 @@
     <t>unlockLevelId</t>
   </si>
   <si>
-    <t>chioceId[]</t>
+    <t>chioceId_1</t>
+  </si>
+  <si>
+    <t>chioceId_2</t>
+  </si>
+  <si>
+    <t>chioceId_3</t>
   </si>
 </sst>
 </file>
@@ -525,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -542,22 +554,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -565,22 +577,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -588,10 +600,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -599,10 +611,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -610,22 +622,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -633,10 +645,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -644,10 +656,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -655,10 +667,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +678,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -677,10 +689,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -688,10 +700,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -711,25 +723,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -751,9 +763,6 @@
       <c r="F2" s="1">
         <v>5.0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -774,9 +783,6 @@
       <c r="F3" s="1">
         <v>4.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -791,15 +797,6 @@
       <c r="D4" s="1">
         <v>8.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -814,15 +811,6 @@
       <c r="D5" s="1">
         <v>8.0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -843,9 +831,6 @@
       <c r="F6" s="1">
         <v>7.0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -860,15 +845,6 @@
       <c r="D7" s="1">
         <v>8.0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -883,15 +859,6 @@
       <c r="D8" s="1">
         <v>8.0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -904,15 +871,6 @@
         <v>8.0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -929,15 +887,6 @@
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -952,15 +901,6 @@
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -974,15 +914,6 @@
       </c>
       <c r="D12" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>en_chioce_2</t>
+  </si>
+  <si>
+    <t>jp_story</t>
+  </si>
+  <si>
+    <t>jp_chioce_1</t>
+  </si>
+  <si>
+    <t>jp_chioce_2</t>
   </si>
   <si>
     <t>聖誕前夜，到處洋溢著歡樂的氣氛，但對TAKAMORI來説卻是例外&lt;block&gt;
@@ -66,6 +75,21 @@
     <t>pick up a gift for her</t>
   </si>
   <si>
+    <t>聖誕の翌日、楽しい雰囲気が溢れる場所がたくさんありますが、TAKAMORIにとっては例外です。
+CalliとKiaraの間には不思議で、困った気持ちがありますが、彼らは以前口論したことがありません。
+Kiaraは最近いつも遅くなって帰宅し、しばしばため息をつきますが、
+Calliが話をしようとすると、彼女の反応はいつもちょうどいいです。
+Calliは彼女に、彼らの間でこのように続けることはできないと伝えます。
+彼女は、自分が高慢であり、Kiaraが我慢できないと懸念し、彼女を離れようとしているのでしょう。
+Calli：「私は彼女を幸せにしたいのですが、どうすればいいですか？」</t>
+  </si>
+  <si>
+    <t>彼女にチョコレートを作る</t>
+  </si>
+  <si>
+    <t>彼女にプレゼントを買う</t>
+  </si>
+  <si>
     <t>在超市裡，Calli正在挑選用來做巧克力的原料
 架上陳列的種類五花八門，但是Calli根本沒做過巧克力，
 看來看去，最後只剩下兩種做起來比較簡單的，
@@ -88,6 +112,18 @@
   </si>
   <si>
     <t>pink &amp; orange</t>
+  </si>
+  <si>
+    <t>スーパーでは、Calliはチョコレートを作るための原料を選ぶ。
+棚に並んでいる種類は五色八戒ですが、Calliはほとんどチョコレートを作ったことがありません。
+見て見ぬ振りをしながら、最後には簡単に作れそうな2種類だけが残っています。
+1つは黒と白、もう1つはピンクとオレンジ。どちらを選ぶかな？</t>
+  </si>
+  <si>
+    <t>黒と白の組</t>
+  </si>
+  <si>
+    <t>ピンクとオレンジの組</t>
   </si>
   <si>
     <t>幹...Calli在心裡大喊，這也她媽的太難處理了吧！
@@ -103,12 +139,22 @@
 I guess this is the best I can do</t>
   </si>
   <si>
+    <t>ばか... Calliは心の中で叫んだ。これもまた彼女のために難しすぎるのか！
+おお、すでに多くの材料を浪費してしまった。
+完全なチョコレートを作ることはできない。
+... ここまでやれるのが限界かもしれない。</t>
+  </si>
+  <si>
     <t>"哇，比我想像中的簡單得多"Calli心想
 帶有TAKAMORI這幾個彩色的字母的巧克力在盤子上閃閃發光</t>
   </si>
   <si>
     <t>Wow this is much easier than I thought, says Calli
 T A K A M O R I, these colorful characters are shining on the finished chocolate on the plate</t>
+  </si>
+  <si>
+    <t>わあ、想像以上の簡単だ」とCalliは思った。
+TAKAMORIという色の文字が入ったチョコレートが皿の上で輝いている。</t>
   </si>
   <si>
     <t>走在大街上，此刻的死神已化為禮物獵人
@@ -135,12 +181,29 @@
     <t>nah</t>
   </si>
   <si>
+    <t>大通りを歩いているとき、死神は今やプレゼントハンターになっていました。
+彼女はすでに街中の店を訪れており、適切なプレゼントを見つけることができませんでした。
+彼女があきらめようとしているとき、おもちゃ屋さんが彼女の注意を引きました。見に行く？</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
     <t>這間玩偶店的主人很顯然是個holo粉，因爲他在店内擺滿了自己收藏的滿山滿谷的Smol HoloMyth周邊
-"這樣挑最好沒錯，"心裏這樣想著，Calli買了Kiara和她自己的smol版本玩偶</t>
+"這樣挑準沒錯"Calli心裏這樣想著，買了Kiara和她自己的smol版本玩偶</t>
   </si>
   <si>
     <t>It's pretty obvious that the pushin store owner's a Hololive fan, as he fills the shop with the smol HoloMyth merch he collects
 "This mustn't be going wrong, " While thinking to herself, Calli grabs some smol version pusheens of Kiara's and hers</t>
+  </si>
+  <si>
+    <t>このおもちゃ屋さんのオーナーは明らかにholoファンです。
+彼は自分が収集したSmol HoloMythの周りを店内に並べました。
+「このように選ぶのは最高です」と心の中で思いながら、
+CalliはKiaraと自分のsmolバージョンのおもちゃを買いました。</t>
   </si>
   <si>
     <t>Calli: 找不到適合的禮物，該怎麽辦?
@@ -151,6 +214,12 @@
     <t>Calli: I can't find anything, what should I do?
 Wait... there's one way... but...
 AAAAA stop being a tsundere this time, I guess I'll be the fucking gift!</t>
+  </si>
+  <si>
+    <t>Calli：適切なプレゼントが見つからない、どうするべきか？
+ああ...待って...まだ1つの方法がある！
+でも...あああああ！
+今は傲慢でいられない時ではない、私は自分自身がそのプレゼントになると思う！</t>
   </si>
   <si>
     <t>當Kiara回來時，Calli把禮物送給她，Kiara又驚又喜地說
@@ -174,6 +243,20 @@
 And they live a happy life after loving each other after this Xmas. The end.</t>
   </si>
   <si>
+    <t>Kiaraが帰ってきたとき、Calliはプレゼントを彼女に渡しました。
+Kiaraは驚いて喜ぶと言いました。
+「え！何？！あなたはいつもそのような小さなことに気を配ることはありませんよね？」
+Calliは、懸念と傲慢の理由をKiaraに一生懸命に伝えました。
+Kiaraは笑って言いました。
+「あなたこのちっちゃなバカ、私がすべてが大丈夫だと言ったことはありませんか？
+最近家に遅く帰る理由は、クリスマスの意外をひそかにあなたに用意しているからです！
+これをあなたに贈ります。魂を収めるときに、それはあなたを守ることができます。
+私があなたが優雅であるからには厭わないと心配しないでください。
+いずれにしても、私はあなたを永遠に愛します！"
+このサンタクロースの日以降、TAKAMORIは幸福で幸せな愛する日々を過ごしました、
+おしまい。</t>
+  </si>
+  <si>
     <t>很久很久以前有個死神，她的名字叫做Mori Calliope，死神的首席大弟子
 有天晚上，正當她在跟惡靈騎士進行追逐戰時，一個閃亮的小東西突然映入她眼簾
 Calli: 是鳥！嗯...? 還是鳳凰？她看起來好像受傷了，讓我來照顧你吧，小姐</t>
@@ -187,6 +270,15 @@
 Looks like she's hurt, let me take care of you, little lady"</t>
   </si>
   <si>
+    <t>とても昔に、死神がいました。
+彼女の名前はMori Calliopeと言いました。死神の最高弟子です。
+ある晩、彼女が悪霊騎士と追跡戦をしているとき、
+突然、閃光する小さなものが目に入りました。
+Calli:鳥だ！うーん...？または鳳凰か？
+彼女はおそらく負傷しているようです。
+私が掛けてあげますね、小さいお嬢さん。</t>
+  </si>
+  <si>
     <t>"身為死神的我竟然在拯救生命，説起來還蠻奇怪的
 不過動物不在我的工作範圍內，所以可以啦" Calli自言自語道
 Calli為這隻鳥準備了一張床還細心地當了一整天的保姆
@@ -199,6 +291,14 @@
 Calli prepares a bed for the bird and babysits her all day long
 "I can't call you bird all the time, I'll give u a name"
 "Let's see... you look so kirakira, Kiara would be a great name!"</t>
+  </si>
+  <si>
+    <t>死神として生命を救っている私、まあ変なことですね。
+しかし、動物は私の仕事範囲外なので、それは良いでしょう。
+ Calliは鳥のためにベッドを用意し、一日中保育器をしました。
+小鳥と呼べない、名前を考えましょう...。
+見てみましょう、キラキラしています。
+Kiaraという名前があなたにとって適していると思います！</t>
   </si>
   <si>
     <t>"我的名字是Kiara...我是永恆不死的象徵，我是隻鳳凰“
@@ -225,6 +325,16 @@
 Calli: "Wait wat... uh... fine... whatever..."
 Calli is a tsundere, deep down she is very happy with that
 So this is how it begins, the end</t>
+  </si>
+  <si>
+    <t>「お、どこにいるの？待って、このベッドはとても柔らかくて弾む！」
+とKiaraは床でジャンプしているとき、Calliが戻ってきた。
+「うるさい鳥！あなたはそんなに激しい運動をしていてはいけません！」とCalliは心配して言った。
+「大丈夫です、私は永遠の象徴です、私は鳳凰です、私はKiaraです！
+あなたは私を助けました、名前を与えました、だから私はあなたのものです！」とKiaraは元気な声で言った。
+Calli: 「え、何...ええと...そうですね...いいですよ...」
+Calliは優雅で、実際にはとても喜んでいました。
+これが彼らの物語の始まりです、終わり。</t>
   </si>
   <si>
     <t>episodeId</t>
@@ -524,6 +634,7 @@
     <col customWidth="1" min="5" max="5" width="61.0"/>
     <col customWidth="1" min="6" max="6" width="19.38"/>
     <col customWidth="1" min="7" max="7" width="15.63"/>
+    <col customWidth="1" min="8" max="8" width="78.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -548,28 +659,46 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -577,22 +706,31 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -600,44 +738,63 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -645,66 +802,96 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -723,25 +910,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -761,7 +948,7 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -778,10 +965,10 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -792,10 +979,16 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="1">
-        <v>8.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -823,13 +1016,7 @@
         <v>5.0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -885,7 +1072,7 @@
         <v>9.0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -899,7 +1086,7 @@
         <v>10.0</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -913,7 +1100,7 @@
         <v>11.0</v>
       </c>
       <c r="D12" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="content" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="all" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="episodeTitle" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -59,12 +60,12 @@
     <t>買禮物送她</t>
   </si>
   <si>
-    <t xml:space="preserve">On xmas eve, happy atmosphere everywhere, except for TAKAMORI
-There's been a weird and awkward vibe between them, yet they've never had any argument before
-Kiara's been coming home very late recently, and always sighs after
-As Calli tries to talk to her everytime, the response's always "all good"
-Calli tells herself they can't be like this anymore,
-she's worried about being way too tsundere that Kiara might wanna leave her already
+    <t xml:space="preserve">On xmas eve, happy atmosphere everywhere, except for TAKAMORI&lt;block&gt;
+There's been a weird and awkward vibe between them, yet they've never had any argument before&lt;block&gt;
+Kiara's been coming home very late recently, and always sighs after&lt;block&gt;
+As Calli tries to talk to her everytime, the response's always "all good"&lt;block&gt;
+Calli tells herself they can't be like this anymore,&lt;block&gt;
+she's worried about being way too tsundere that Kiara might wanna leave her already&lt;block&gt;
 Calli: I wanna cheer her up, but what should I do:
 </t>
   </si>
@@ -90,10 +91,10 @@
     <t>彼女にプレゼントを買う</t>
   </si>
   <si>
-    <t>在超市裡，Calli正在挑選用來做巧克力的原料
-架上陳列的種類五花八門，但是Calli根本沒做過巧克力，
-看來看去，最後只剩下兩種做起來比較簡單的，
-一組是黑白色、一組是粉橘色，要選哪個呢</t>
+    <t>在超市裡，Calli正在挑選用來做巧克力的原料&lt;block&gt;
+架上陳列的種類五花八門，但是Calli根本沒做過巧克力，&lt;block&gt;
+看來看去，最後只剩下兩種做起來比較簡單的，&lt;block&gt;
+一組是黑白色、一組是粉橘色，要選哪個呢？</t>
   </si>
   <si>
     <t>黑白色那組</t>
@@ -102,9 +103,9 @@
     <t>粉橘色那組</t>
   </si>
   <si>
-    <t>At the super market, Calli is looking for some ingredients to make chocolates to buy,
-there're so many kinds, but calli has never made chocolates before,
-the only two easy-to-cook ones come in the sets of black &amp; white and pink &amp; orange 
+    <t>At the super market, Calli is looking for some ingredients to make chocolates to buy,&lt;block&gt;
+there're so many kinds, but calli has never made chocolates before,&lt;block&gt;
+the only two easy-to-cook ones come in the sets of black &amp; white and pink &amp; orange
 which to choose:</t>
   </si>
   <si>
@@ -126,16 +127,16 @@
     <t>ピンクとオレンジの組</t>
   </si>
   <si>
-    <t>幹...Calli在心裡大喊，這也她媽的太難處理了吧！
-我的天，已經浪費太多材料了，沒辦法做出一個完整的巧克力啦
-...
-我想我最多只能做到這裡了</t>
-  </si>
-  <si>
-    <t>holy shiit... calli yells in her mind,
-this‘s so fucking hard to deal with
-Gosh, I've wasted too much of the ingredients that i can't make some actual chocolates out of them anymore
-...
+    <t>幹...Calli在心裡大喊，這也她媽的太難處理了吧！&lt;block&gt;
+我的天，已經浪費太多材料了，沒辦法做出一個完整的巧克力啦！&lt;block&gt;
+...&lt;block&gt;
+我想我最多只能做成這樣了</t>
+  </si>
+  <si>
+    <t>holy shiit... calli yells in her mind,&lt;block&gt;
+this‘s so fucking hard to deal with&lt;block&gt;
+Gosh, I've wasted too much of the ingredients that i can't make some actual chocolates out of them anymore&lt;block&gt;
+...&lt;block&gt;
 I guess this is the best I can do</t>
   </si>
   <si>
@@ -145,11 +146,11 @@
 ... ここまでやれるのが限界かもしれない。</t>
   </si>
   <si>
-    <t>"哇，比我想像中的簡單得多"Calli心想
+    <t>"哇，比我想像中的簡單得多"Calli心想&lt;block&gt;
 帶有TAKAMORI這幾個彩色的字母的巧克力在盤子上閃閃發光</t>
   </si>
   <si>
-    <t>Wow this is much easier than I thought, says Calli
+    <t>Wow this is much easier than I thought, says Calli&lt;block&gt;
 T A K A M O R I, these colorful characters are shining on the finished chocolate on the plate</t>
   </si>
   <si>
@@ -157,9 +158,9 @@
 TAKAMORIという色の文字が入ったチョコレートが皿の上で輝いている。</t>
   </si>
   <si>
-    <t>走在大街上，此刻的死神已化為禮物獵人
-她已經去過全城的商店，卻挑不中一個合適的禮物
-當她正要放棄時，一間玩偶店吸引了她的注意力
+    <t>走在大街上，此刻的死神已化為禮物獵人&lt;block&gt;
+她已經去過全城的商店，卻挑不中一個合適的禮物&lt;block&gt;
+當她正要放棄時，一間玩偶店吸引了她的注意力&lt;block&gt;
 要去看看嗎？</t>
   </si>
   <si>
@@ -169,8 +170,8 @@
     <t>不了</t>
   </si>
   <si>
-    <t>Walking down the street, the reaper is now being a gift hunter
-she's been to almost every shop in the town, but haven't found a suitable one for a present
+    <t>Walking down the street, the reaper is now being a gift hunter&lt;block&gt;
+she's been to almost every shop in the town, but haven't found a suitable one for a present&lt;block&gt;
 as she almost gives up, a pusheen store catches her eyes
 give it a try?</t>
   </si>
@@ -192,12 +193,14 @@
     <t>いいえ</t>
   </si>
   <si>
-    <t>這間玩偶店的主人很顯然是個holo粉，因爲他在店内擺滿了自己收藏的滿山滿谷的Smol HoloMyth周邊
+    <t>這間玩偶店的主人很顯然是個holo粉，
+因爲他在店内擺滿了自己收藏的滿山滿谷的Smol HoloMyth周邊&lt;block&gt;
 "這樣挑準沒錯"Calli心裏這樣想著，買了Kiara和她自己的smol版本玩偶</t>
   </si>
   <si>
-    <t>It's pretty obvious that the pushin store owner's a Hololive fan, as he fills the shop with the smol HoloMyth merch he collects
-"This mustn't be going wrong, " While thinking to herself, Calli grabs some smol version pusheens of Kiara's and hers</t>
+    <t>It's pretty obvious that the pushin store owner's a Hololive fan, as he fills the shop with the smol HoloMyth merch he collects&lt;block&gt;
+"This mustn't be going wrong"
+While thinking to herself, Calli grabs some smol version pusheens of Kiara's and hers</t>
   </si>
   <si>
     <t>このおもちゃ屋さんのオーナーは明らかにholoファンです。
@@ -206,13 +209,13 @@
 CalliはKiaraと自分のsmolバージョンのおもちゃを買いました。</t>
   </si>
   <si>
-    <t>Calli: 找不到適合的禮物，該怎麽辦?
-喔...等等...還有一個辦法啊！但是....
+    <t>Calli: 找不到適合的禮物，該怎麽辦?&lt;block&gt;
+喔...等等...還有一個辦法啊！但是....&lt;block&gt;
 啊啊啊啊啊！現在可不是耍傲嬌的時候啊，我猜我自己他媽的要成爲那個禮物了！</t>
   </si>
   <si>
-    <t>Calli: I can't find anything, what should I do?
-Wait... there's one way... but...
+    <t>Calli: I can't find anything, what should I do?&lt;block&gt;
+Wait... there's one way... but...&lt;block&gt;
 AAAAA stop being a tsundere this time, I guess I'll be the fucking gift!</t>
   </si>
   <si>
@@ -222,24 +225,25 @@
 今は傲慢でいられない時ではない、私は自分自身がそのプレゼントになると思う！</t>
   </si>
   <si>
-    <t>當Kiara回來時，Calli把禮物送給她，Kiara又驚又喜地說
-"咦！什麼？！你不是從來都不會不注意這些小事的嗎？"
-Calli一五一十地把她的擔憂和傲嬌的原因告訴Kiara，
+    <t>當Kiara回來時，Calli把禮物送給她&lt;block&gt;
+Kiara又驚又喜地說
+"咦！什麼？！你不是從來都不會不注意這些小事的嗎？"&lt;block&gt;
+Calli一五一十地把她的擔憂和傲嬌的原因告訴Kiara，&lt;block&gt;
 Kiara笑著說："你這個小蠢蛋，我不是說過一切都很好嗎，
-我最近很晚回家的原因是因為我在偷偷給你準備聖誕節的驚喜！
+我最近很晚回家的原因是因為我在偷偷給你準備聖誕節的驚喜！&lt;block&gt;
 來，我織了圍巾給你，當你收割靈魂時它可以保護你。
-不用擔心我因為你傲嬌而討厭你，不管怎麼樣，我都會永遠愛你！"
+不用擔心我因為你傲嬌而討厭你，不管怎麼樣，我都會永遠愛你！"&lt;block&gt;
 於是自從這個聖誕節之後，TAKAMORI過著幸福快樂的相愛的日子，劇終</t>
   </si>
   <si>
-    <t>When Kiara's home, Calli gives the gift to her
+    <t>When Kiara's home, Calli gives the gift to her&lt;block&gt;
 Kiara looks very happy and surprised
-"Why? You never even care to pay attention to those little things!"
-Calli tells Kiara her worries and her reason for being a tsundere, and Kiara laughs
+"Why? You never even care to pay attention to those little things!"&lt;block&gt;
+Calli tells Kiara her worries and her reason for being a tsundere, and Kiara laughs&lt;block&gt;
 "You silly baka, I told you it's all good,
-the reason I come back late recently is because I've been secretly preparing a Xmas surprise for you!
+the reason I come back late recently is because I've been secretly preparing a Xmas surprise for you!&lt;block&gt;
 Here, I sew this scarf for you, it can protect you when you reap.
-and don't worry about being tsundere, I'll love u despite everything!"
+and don't worry about being tsundere, I'll love u despite everything!"&lt;block&gt;
 And they live a happy life after loving each other after this Xmas. The end.</t>
   </si>
   <si>
@@ -356,6 +360,36 @@
   </si>
   <si>
     <t>chioceId_3</t>
+  </si>
+  <si>
+    <t>zh_title</t>
+  </si>
+  <si>
+    <t>en_title</t>
+  </si>
+  <si>
+    <t>jp_title</t>
+  </si>
+  <si>
+    <t>sortId</t>
+  </si>
+  <si>
+    <t>聖誕節</t>
+  </si>
+  <si>
+    <t>Xmas</t>
+  </si>
+  <si>
+    <t>クリスマス</t>
+  </si>
+  <si>
+    <t>相遇</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>出会い</t>
   </si>
 </sst>
 </file>
@@ -422,6 +456,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -999,7 +1037,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" s="1">
         <v>8.0</v>
@@ -1013,7 +1051,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="1">
         <v>8.0</v>
@@ -1101,6 +1139,72 @@
       </c>
       <c r="D12" s="1">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -374,22 +374,35 @@
     <t>sortId</t>
   </si>
   <si>
-    <t>聖誕節</t>
-  </si>
-  <si>
-    <t>Xmas</t>
-  </si>
-  <si>
-    <t>クリスマス</t>
+    <t>isLock</t>
+  </si>
+  <si>
+    <t>聖誕夜的驚喜</t>
+  </si>
+  <si>
+    <t>Xmas surprise</t>
+  </si>
+  <si>
+    <t>クリスマス
+サプライズ</t>
   </si>
   <si>
     <t>相遇</t>
   </si>
   <si>
-    <t>Begin</t>
+    <t>How it begin</t>
   </si>
   <si>
     <t>出会い</t>
+  </si>
+  <si>
+    <t>我們的世界</t>
+  </si>
+  <si>
+    <t>Ourcraft</t>
+  </si>
+  <si>
+    <t>私たちのクラフト</t>
   </si>
 </sst>
 </file>
@@ -1172,22 +1185,28 @@
       <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1">
         <v>1.0</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1195,16 +1214,39 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>2.0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="content" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="all" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="episodeTitle" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="uiText" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -403,6 +404,156 @@
   </si>
   <si>
     <t>私たちのクラフト</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>故事集</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>物語集</t>
+  </si>
+  <si>
+    <t>bgm</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>効果音</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>語言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>製作人員</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>制作スタッフ</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>程式</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>プログラム</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>美術</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>翻譯</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>翻訳</t>
+  </si>
+  <si>
+    <t>skipPuzzle</t>
+  </si>
+  <si>
+    <t>完成拼圖後 重複關卡跳過遊玩</t>
+  </si>
+  <si>
+    <t>Skip playing puzzle when it has done once</t>
+  </si>
+  <si>
+    <t>パズルを完成させた後、レベルを繰り返してゲームをスキップします</t>
+  </si>
+  <si>
+    <t>storyAuto</t>
+  </si>
+  <si>
+    <t>故事自動對話</t>
+  </si>
+  <si>
+    <t>Story Auto</t>
+  </si>
+  <si>
+    <t>ストーリーオートダイアログ</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>重置設定</t>
+  </si>
+  <si>
+    <t>Reset to default</t>
+  </si>
+  <si>
+    <t>設定をリセット</t>
   </si>
 </sst>
 </file>
@@ -473,6 +624,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1252,4 +1407,246 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col customWidth="1" min="4" max="4" width="32.38"/>
+    <col customWidth="1" min="5" max="5" width="52.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -554,6 +554,21 @@
   </si>
   <si>
     <t>設定をリセット</t>
+  </si>
+  <si>
+    <t>unlockCG</t>
+  </si>
+  <si>
+    <t>恭喜過關！
+已解鎖{0}的CG</t>
+  </si>
+  <si>
+    <t>Congratulations! 
+You've unlocked the CG of {0}</t>
+  </si>
+  <si>
+    <t>おめでとうございます！
+{0}のCGがロックされていました。</t>
   </si>
 </sst>
 </file>
@@ -1646,6 +1661,23 @@
         <v>131</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
+++ b/Assets/Resources/excel/TAKAMORIPuzzleScripts.xlsx
@@ -77,12 +77,12 @@
     <t>pick up a gift for her</t>
   </si>
   <si>
-    <t>聖誕の翌日、楽しい雰囲気が溢れる場所がたくさんありますが、TAKAMORIにとっては例外です。
-CalliとKiaraの間には不思議で、困った気持ちがありますが、彼らは以前口論したことがありません。
-Kiaraは最近いつも遅くなって帰宅し、しばしばため息をつきますが、
-Calliが話をしようとすると、彼女の反応はいつもちょうどいいです。
-Calliは彼女に、彼らの間でこのように続けることはできないと伝えます。
-彼女は、自分が高慢であり、Kiaraが我慢できないと懸念し、彼女を離れようとしているのでしょう。
+    <t>聖誕の翌日、楽しい雰囲気が溢れる場所がたくさんありますが、TAKAMORIにとっては例外です。&lt;block&gt;
+CalliとKiaraの間には不思議で、困った気持ちがありますが、彼らは以前口論したことがありません。&lt;block&gt;
+Kiaraは最近いつも遅くなって帰宅し、しばしばため息をつきますが、&lt;block&gt;
+Calliが話をしようとすると、彼女の反応はいつもちょうどいいです。&lt;block&gt;
+Calliは彼女に、彼らの間でこのように続けることはできないと伝えます。&lt;block&gt;
+彼女は、自分が高慢であり、Kiaraが我慢できないと懸念し、彼女を離れようとしているのでしょう。&lt;block&gt;
 Calli：「私は彼女を幸せにしたいのですが、どうすればいいですか？」</t>
   </si>
   <si>
@@ -116,9 +116,9 @@
     <t>pink &amp; orange</t>
   </si>
   <si>
-    <t>スーパーでは、Calliはチョコレートを作るための原料を選ぶ。
-棚に並んでいる種類は五色八戒ですが、Calliはほとんどチョコレートを作ったことがありません。
-見て見ぬ振りをしながら、最後には簡単に作れそうな2種類だけが残っています。
+    <t>ス一パ一では、Calliはチョコレ一トを作るための原料を選ぶ。&lt;block&gt;
+棚に並んでいる種類は五色八戒ですが、Calliはほとんどチョコレ一トを作ったことがありません。&lt;block&gt;
+見て見ぬ振りをしながら、最後には簡単に作れそうな2種類だけが残っています。&lt;block&gt;
 1つは黒と白、もう1つはピンクとオレンジ。どちらを選ぶかな？</t>
   </si>
   <si>
@@ -141,9 +141,9 @@
 I guess this is the best I can do</t>
   </si>
   <si>
-    <t>ばか... Calliは心の中で叫んだ。これもまた彼女のために難しすぎるのか！
-おお、すでに多くの材料を浪費してしまった。
-完全なチョコレートを作ることはできない。
+    <t>ばか... Calliは心の中で叫んだ。これもまた彼女のために難しすぎるのか！&lt;block&gt;
+おお、すでに多くの材料を浪費してしまった。&lt;block&gt;
+完全なチョコレートを作ることはできない。&lt;block&gt;
 ... ここまでやれるのが限界かもしれない。</t>
   </si>
   <si>
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>わあ、想像以上の簡単だ」とCalliは思った。
-TAKAMORIという色の文字が入ったチョコレートが皿の上で輝いている。</t>
+TAKAMORIという色の文字が入ったチョコレ一トが皿の上で輝いている。</t>
   </si>
   <si>
     <t>走在大街上，此刻的死神已化為禮物獵人&lt;block&gt;
@@ -183,8 +183,8 @@
     <t>nah</t>
   </si>
   <si>
-    <t>大通りを歩いているとき、死神は今やプレゼントハンターになっていました。
-彼女はすでに街中の店を訪れており、適切なプレゼントを見つけることができませんでした。
+    <t>大通りを歩いているとき、死神は今やプレゼントハンタ一になっていました。&lt;block&gt;
+彼女はすでに街中の店を訪れており、適切なプレゼントを見つけることができませんでした。&lt;block&gt;
 彼女があきらめようとしているとき、おもちゃ屋さんが彼女の注意を引きました。見に行く？</t>
   </si>
   <si>
@@ -204,13 +204,13 @@
 While thinking to herself, Calli grabs some smol version pusheens of Kiara's and hers</t>
   </si>
   <si>
-    <t>このおもちゃ屋さんのオーナーは明らかにholoファンです。
-彼は自分が収集したSmol HoloMythの周りを店内に並べました。
-「このように選ぶのは最高です」と心の中で思いながら、
+    <t>このおもちゃ屋さんのオ一ナ一は明らかにholoファンです。&lt;block&gt;
+彼は自分が収集したSmol HoloMythの周りを店内に並べました。&lt;block&gt;
+「このように選ぶのは最高です」と心の中で思いながら、&lt;block&gt;
 CalliはKiaraと自分のsmolバージョンのおもちゃを買いました。</t>
   </si>
   <si>
-    <t>Calli: 找不到適合的禮物，該怎麽辦?&lt;block&gt;
+    <t>Calli: 找不到適合的禮物，該怎麼辦?&lt;block&gt;
 喔...等等...還有一個辦法啊！但是....&lt;block&gt;
 啊啊啊啊啊！現在可不是耍傲嬌的時候啊，我猜我自己他媽的要成爲那個禮物了！</t>
   </si>
@@ -220,21 +220,21 @@
 AAAAA stop being a tsundere this time, I guess I'll be the fucking gift!</t>
   </si>
   <si>
-    <t>Calli：適切なプレゼントが見つからない、どうするべきか？
-ああ...待って...まだ1つの方法がある！
-でも...あああああ！
+    <t>Calli：適切なプレゼントが見つからない、どうするべきか？&lt;block&gt;
+ああ...待って...まだ1つの方法がある！&lt;block&gt;
+でも...あああああ！&lt;block&gt;
 今は傲慢でいられない時ではない、私は自分自身がそのプレゼントになると思う！</t>
   </si>
   <si>
     <t>當Kiara回來時，Calli把禮物送給她&lt;block&gt;
-Kiara又驚又喜地說
-"咦！什麼？！你不是從來都不會不注意這些小事的嗎？"&lt;block&gt;
+Kiara又驚又喜地說："咦！什麼？！你不是從來都不會不注意這些小事的嗎？"&lt;block&gt;
 Calli一五一十地把她的擔憂和傲嬌的原因告訴Kiara，&lt;block&gt;
 Kiara笑著說："你這個小蠢蛋，我不是說過一切都很好嗎，
 我最近很晚回家的原因是因為我在偷偷給你準備聖誕節的驚喜！&lt;block&gt;
 來，我織了圍巾給你，當你收割靈魂時它可以保護你。
 不用擔心我因為你傲嬌而討厭你，不管怎麼樣，我都會永遠愛你！"&lt;block&gt;
-於是自從這個聖誕節之後，TAKAMORI過著幸福快樂的相愛的日子，劇終</t>
+於是自從這個聖誕節之後，TAKAMORI過著幸福快樂的相愛的日子&lt;block&gt;
+劇終</t>
   </si>
   <si>
     <t>When Kiara's home, Calli gives the gift to her&lt;block&gt;
@@ -245,20 +245,21 @@
 the reason I come back late recently is because I've been secretly preparing a Xmas surprise for you!&lt;block&gt;
 Here, I sew this scarf for you, it can protect you when you reap.
 and don't worry about being tsundere, I'll love u despite everything!"&lt;block&gt;
-And they live a happy life after loving each other after this Xmas. The end.</t>
-  </si>
-  <si>
-    <t>Kiaraが帰ってきたとき、Calliはプレゼントを彼女に渡しました。
+And they live a happy life after loving each other after this Xmas.&lt;block&gt;
+The end.</t>
+  </si>
+  <si>
+    <t>Kiaraが帰ってきたとき、Calliはプレゼントを彼女に渡しました。&lt;block&gt;
 Kiaraは驚いて喜ぶと言いました。
-「え！何？！あなたはいつもそのような小さなことに気を配ることはありませんよね？」
-Calliは、懸念と傲慢の理由をKiaraに一生懸命に伝えました。
+「え！何？！あなたはいつもそのような小さなことに気を配ることはありませんよね？」&lt;block&gt;
+Calliは、懸念と傲慢の理由をKiaraに一生懸命に伝えました。&lt;block&gt;
 Kiaraは笑って言いました。
-「あなたこのちっちゃなバカ、私がすべてが大丈夫だと言ったことはありませんか？
-最近家に遅く帰る理由は、クリスマスの意外をひそかにあなたに用意しているからです！
-これをあなたに贈ります。魂を収めるときに、それはあなたを守ることができます。
-私があなたが優雅であるからには厭わないと心配しないでください。
-いずれにしても、私はあなたを永遠に愛します！"
-このサンタクロースの日以降、TAKAMORIは幸福で幸せな愛する日々を過ごしました、
+「あなたこのちっちゃなバカ、私がすべてが大丈夫だと言ったことはありませんか？&lt;block&gt;
+最近家に遅く帰る理由は、クリスマスの意外をひそかにあなたに用意しているからです！&lt;block&gt;
+これをあなたに贈ります。魂を収めるときに、それはあなたを守ることができます。&lt;block&gt;
+私があなたが優雅であるからには厭わないと心配しないでください。&lt;block&gt;
+いずれにしても、私はあなたを永遠に愛します！"&lt;block&gt;
+このサンタクロ一スの日以降、TAKAMORIは幸福で幸せな愛する日々を過ごしました、&lt;block&gt;
 おしまい。</t>
   </si>
   <si>
@@ -529,7 +530,7 @@
     <t>Skip playing puzzle when it has done once</t>
   </si>
   <si>
-    <t>パズルを完成させた後、レベルを繰り返してゲームをスキップします</t>
+    <t>パズルを完成させた後、レベルを繰り返してゲ一ムをスキップします</t>
   </si>
   <si>
     <t>storyAuto</t>
@@ -541,7 +542,7 @@
     <t>Story Auto</t>
   </si>
   <si>
-    <t>ストーリーオートダイアログ</t>
+    <t>スト一リ一オ一トダイアログ</t>
   </si>
   <si>
     <t>reset</t>
@@ -592,12 +593,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -612,14 +619,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -912,7 +922,7 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -944,7 +954,7 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -964,7 +974,7 @@
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1"/>
@@ -980,7 +990,7 @@
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="1"/>
@@ -1008,7 +1018,7 @@
       <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1028,7 +1038,7 @@
       <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="1"/>
@@ -1044,7 +1054,7 @@
       <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="1"/>
@@ -1060,7 +1070,7 @@
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1"/>
@@ -1145,10 +1155,10 @@
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>67</v>
       </c>
     </row>
